--- a/biology/Botanique/Dematiaceae/Dematiaceae.xlsx
+++ b/biology/Botanique/Dematiaceae/Dematiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Dematiaceae, ou Dematiacées est une famille de champignons autrefois classée dans les deutéromycètes[1]. De nombreuses espèces de la famille sont des pathogènes végétaux, voir par exemple les Botrytis, les Alternaria, les Cladosporium ou les Cercospora. Il s'agit de champignons à conidiophores simples ou ramifiés, insérés directement sur le thalle et ne présentant donc pas de fructifications complexes comme les pycnides. Les conidiophores sont plus ou moins colorés contrairement aux moniliacées où ils sont hyalins.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Dematiaceae, ou Dematiacées est une famille de champignons autrefois classée dans les deutéromycètes. De nombreuses espèces de la famille sont des pathogènes végétaux, voir par exemple les Botrytis, les Alternaria, les Cladosporium ou les Cercospora. Il s'agit de champignons à conidiophores simples ou ramifiés, insérés directement sur le thalle et ne présentant donc pas de fructifications complexes comme les pycnides. Les conidiophores sont plus ou moins colorés contrairement aux moniliacées où ils sont hyalins.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (1 juin 2013)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (1 juin 2013) :
 genre Alternaria Nees Von Esenb. Ex Fries
 genre Asteromyces Moreau &amp; Moreau Ex Henne., 1962
 genre Cirrenalia Meyers &amp; Moore, 1960
